--- a/data/pca/factorExposure/factorExposure_2012-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-18.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01829051971427467</v>
+        <v>-0.02308450679101792</v>
       </c>
       <c r="C2">
-        <v>0.02793887256364694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02451108911484498</v>
+      </c>
+      <c r="D2">
+        <v>-0.004837023526931447</v>
+      </c>
+      <c r="E2">
+        <v>0.01766156310856069</v>
+      </c>
+      <c r="F2">
+        <v>0.005039969301613173</v>
+      </c>
+      <c r="G2">
+        <v>0.01449627052462876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06930435213390555</v>
+        <v>-0.07534160011820526</v>
       </c>
       <c r="C4">
-        <v>0.05826104959780691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03915790968932347</v>
+      </c>
+      <c r="D4">
+        <v>-0.07086045665891728</v>
+      </c>
+      <c r="E4">
+        <v>-0.002921564055762361</v>
+      </c>
+      <c r="F4">
+        <v>0.01780498785861398</v>
+      </c>
+      <c r="G4">
+        <v>-0.02706234875009611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09684597642117491</v>
+        <v>-0.1122779939412139</v>
       </c>
       <c r="C6">
-        <v>0.0651043749255646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04467899336568486</v>
+      </c>
+      <c r="D6">
+        <v>-0.01608613412863391</v>
+      </c>
+      <c r="E6">
+        <v>-0.007792848792570659</v>
+      </c>
+      <c r="F6">
+        <v>0.04359289212315394</v>
+      </c>
+      <c r="G6">
+        <v>0.008831416199276495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04510415817056671</v>
+        <v>-0.05388694969194959</v>
       </c>
       <c r="C7">
-        <v>0.034276412812346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02569006695811921</v>
+      </c>
+      <c r="D7">
+        <v>-0.03405783383316945</v>
+      </c>
+      <c r="E7">
+        <v>0.02304682566871967</v>
+      </c>
+      <c r="F7">
+        <v>0.02703655349740403</v>
+      </c>
+      <c r="G7">
+        <v>-0.03678465112538352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03258994326992413</v>
+        <v>-0.03341381845425669</v>
       </c>
       <c r="C8">
-        <v>0.02664174070989401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01714460976178172</v>
+      </c>
+      <c r="D8">
+        <v>-0.03925679730678835</v>
+      </c>
+      <c r="E8">
+        <v>0.01106946540196555</v>
+      </c>
+      <c r="F8">
+        <v>0.04817986222987292</v>
+      </c>
+      <c r="G8">
+        <v>0.0244317332324976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06188432138964726</v>
+        <v>-0.06928630697328766</v>
       </c>
       <c r="C9">
-        <v>0.04508484174909874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02861824718372477</v>
+      </c>
+      <c r="D9">
+        <v>-0.07211427739286663</v>
+      </c>
+      <c r="E9">
+        <v>0.01709739785218551</v>
+      </c>
+      <c r="F9">
+        <v>0.03292072824983036</v>
+      </c>
+      <c r="G9">
+        <v>-0.00927804067500519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03013952948740255</v>
+        <v>-0.04064717337988987</v>
       </c>
       <c r="C10">
-        <v>0.03714415432460276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03832733111823394</v>
+      </c>
+      <c r="D10">
+        <v>0.1841347201059587</v>
+      </c>
+      <c r="E10">
+        <v>0.04685003678703484</v>
+      </c>
+      <c r="F10">
+        <v>0.03080963912476034</v>
+      </c>
+      <c r="G10">
+        <v>-0.02036442094005626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07020312013337181</v>
+        <v>-0.07587135306639672</v>
       </c>
       <c r="C11">
-        <v>0.05255232203328859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03124425426440777</v>
+      </c>
+      <c r="D11">
+        <v>-0.06739545887879149</v>
+      </c>
+      <c r="E11">
+        <v>-0.005428661831915636</v>
+      </c>
+      <c r="F11">
+        <v>0.0360154472987073</v>
+      </c>
+      <c r="G11">
+        <v>-0.03851449377185895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05292733345628321</v>
+        <v>-0.06043997941500117</v>
       </c>
       <c r="C12">
-        <v>0.0510863428028563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03527200551959585</v>
+      </c>
+      <c r="D12">
+        <v>-0.04999319379444688</v>
+      </c>
+      <c r="E12">
+        <v>0.01138907104825726</v>
+      </c>
+      <c r="F12">
+        <v>0.02647734867935189</v>
+      </c>
+      <c r="G12">
+        <v>-0.03239094241359168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.06060205089352408</v>
+        <v>-0.06447350613642927</v>
       </c>
       <c r="C13">
-        <v>0.05125027397220776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0304125538496211</v>
+      </c>
+      <c r="D13">
+        <v>-0.05703970274900499</v>
+      </c>
+      <c r="E13">
+        <v>0.004469439079035183</v>
+      </c>
+      <c r="F13">
+        <v>0.01537565365447661</v>
+      </c>
+      <c r="G13">
+        <v>-0.0162526640201995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0337686497089463</v>
+        <v>-0.0387518585903004</v>
       </c>
       <c r="C14">
-        <v>0.02925505724006413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02256140146159084</v>
+      </c>
+      <c r="D14">
+        <v>-0.01151131779519423</v>
+      </c>
+      <c r="E14">
+        <v>0.02014830943553237</v>
+      </c>
+      <c r="F14">
+        <v>0.01837243578208602</v>
+      </c>
+      <c r="G14">
+        <v>0.00900262103538799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.04021848500028816</v>
+        <v>-0.04036784297838768</v>
       </c>
       <c r="C15">
-        <v>0.01398377711029193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004933586434402585</v>
+      </c>
+      <c r="D15">
+        <v>-0.01938729164749893</v>
+      </c>
+      <c r="E15">
+        <v>0.04330627000252991</v>
+      </c>
+      <c r="F15">
+        <v>-0.003143501032992016</v>
+      </c>
+      <c r="G15">
+        <v>0.02291121469832109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0579403712625846</v>
+        <v>-0.06148810014465091</v>
       </c>
       <c r="C16">
-        <v>0.0434528725847358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02703947391995222</v>
+      </c>
+      <c r="D16">
+        <v>-0.05894701235650372</v>
+      </c>
+      <c r="E16">
+        <v>0.0009290802665084623</v>
+      </c>
+      <c r="F16">
+        <v>0.0292147029538046</v>
+      </c>
+      <c r="G16">
+        <v>-0.02227746886288088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06280318660557697</v>
+        <v>-0.06159005779955343</v>
       </c>
       <c r="C20">
-        <v>0.03666597379617875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01813310206526915</v>
+      </c>
+      <c r="D20">
+        <v>-0.04945211945508935</v>
+      </c>
+      <c r="E20">
+        <v>0.02063367548102923</v>
+      </c>
+      <c r="F20">
+        <v>0.02524321912775613</v>
+      </c>
+      <c r="G20">
+        <v>-0.02444920767349384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02666004574547151</v>
+        <v>-0.02315880246932621</v>
       </c>
       <c r="C21">
-        <v>-6.196539317127934e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01080182142027244</v>
+      </c>
+      <c r="D21">
+        <v>-0.03741432901729561</v>
+      </c>
+      <c r="E21">
+        <v>0.09222562407423029</v>
+      </c>
+      <c r="F21">
+        <v>-0.009574174690418914</v>
+      </c>
+      <c r="G21">
+        <v>0.0199724133751865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06975358936831053</v>
+        <v>-0.07029753675652471</v>
       </c>
       <c r="C22">
-        <v>0.07781156265562519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04867356458188059</v>
+      </c>
+      <c r="D22">
+        <v>-0.1082722832119832</v>
+      </c>
+      <c r="E22">
+        <v>0.6025790845941086</v>
+      </c>
+      <c r="F22">
+        <v>-0.1591967565988557</v>
+      </c>
+      <c r="G22">
+        <v>0.05813161947900024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.07050042709663937</v>
+        <v>-0.07100376609151704</v>
       </c>
       <c r="C23">
-        <v>0.07732822755853568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04811072961862715</v>
+      </c>
+      <c r="D23">
+        <v>-0.1094098484826428</v>
+      </c>
+      <c r="E23">
+        <v>0.6016922452978613</v>
+      </c>
+      <c r="F23">
+        <v>-0.1588882983668207</v>
+      </c>
+      <c r="G23">
+        <v>0.05962829210695361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06436051800048584</v>
+        <v>-0.07239875028332204</v>
       </c>
       <c r="C24">
-        <v>0.05094387665462064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03235069641227033</v>
+      </c>
+      <c r="D24">
+        <v>-0.06618177109635341</v>
+      </c>
+      <c r="E24">
+        <v>0.009023420128113619</v>
+      </c>
+      <c r="F24">
+        <v>0.04307186807514388</v>
+      </c>
+      <c r="G24">
+        <v>-0.01641261314963078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0655450864391825</v>
+        <v>-0.07111216456390371</v>
       </c>
       <c r="C25">
-        <v>0.05722564798170857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03812086866108873</v>
+      </c>
+      <c r="D25">
+        <v>-0.06393872981577502</v>
+      </c>
+      <c r="E25">
+        <v>0.009187575503902543</v>
+      </c>
+      <c r="F25">
+        <v>0.03942940353999679</v>
+      </c>
+      <c r="G25">
+        <v>-0.01439854988379565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.039015222473075</v>
+        <v>-0.04000691085289727</v>
       </c>
       <c r="C26">
-        <v>0.01328753801113899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005054712510486973</v>
+      </c>
+      <c r="D26">
+        <v>-0.01948298944527453</v>
+      </c>
+      <c r="E26">
+        <v>0.03736344512672696</v>
+      </c>
+      <c r="F26">
+        <v>0.01551842748822486</v>
+      </c>
+      <c r="G26">
+        <v>-0.01677679627226054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0570214291673331</v>
+        <v>-0.07652777851771303</v>
       </c>
       <c r="C28">
-        <v>0.07634436116756291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07665470804535715</v>
+      </c>
+      <c r="D28">
+        <v>0.3230882188093728</v>
+      </c>
+      <c r="E28">
+        <v>0.04817723306432106</v>
+      </c>
+      <c r="F28">
+        <v>0.05448286116092458</v>
+      </c>
+      <c r="G28">
+        <v>0.0291406080721779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03688633344733083</v>
+        <v>-0.04224869545544382</v>
       </c>
       <c r="C29">
-        <v>0.03253142816978274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02545035289149638</v>
+      </c>
+      <c r="D29">
+        <v>-0.009837589445723686</v>
+      </c>
+      <c r="E29">
+        <v>0.04400502160681916</v>
+      </c>
+      <c r="F29">
+        <v>0.01058374520764127</v>
+      </c>
+      <c r="G29">
+        <v>-0.004244300152239881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1152604717187495</v>
+        <v>-0.1277570110436323</v>
       </c>
       <c r="C30">
-        <v>0.09784645874273737</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06629932910323924</v>
+      </c>
+      <c r="D30">
+        <v>-0.1058255482371458</v>
+      </c>
+      <c r="E30">
+        <v>0.03991752728374119</v>
+      </c>
+      <c r="F30">
+        <v>0.005254595309985487</v>
+      </c>
+      <c r="G30">
+        <v>-0.001814157195446903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03769448942816804</v>
+        <v>-0.04271113789081215</v>
       </c>
       <c r="C31">
-        <v>0.02428307815974891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01535698477477859</v>
+      </c>
+      <c r="D31">
+        <v>-0.0302065813895444</v>
+      </c>
+      <c r="E31">
+        <v>0.01979736276144746</v>
+      </c>
+      <c r="F31">
+        <v>0.01642839205791502</v>
+      </c>
+      <c r="G31">
+        <v>-0.01913534408326593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03243168814706498</v>
+        <v>-0.03327164026134616</v>
       </c>
       <c r="C32">
-        <v>0.02860348250916241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01814171657696559</v>
+      </c>
+      <c r="D32">
+        <v>-0.013827861266261</v>
+      </c>
+      <c r="E32">
+        <v>0.06230618397648324</v>
+      </c>
+      <c r="F32">
+        <v>-0.01427348718055512</v>
+      </c>
+      <c r="G32">
+        <v>0.01079200377584719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07625959295778315</v>
+        <v>-0.08720965477013502</v>
       </c>
       <c r="C33">
-        <v>0.05020941478319787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03255489999447709</v>
+      </c>
+      <c r="D33">
+        <v>-0.06262842041008963</v>
+      </c>
+      <c r="E33">
+        <v>0.01478536332654733</v>
+      </c>
+      <c r="F33">
+        <v>0.002053294028307058</v>
+      </c>
+      <c r="G33">
+        <v>-0.02878370738146617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0515201622433095</v>
+        <v>-0.05655483742997878</v>
       </c>
       <c r="C34">
-        <v>0.03250500726688761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01858861959623971</v>
+      </c>
+      <c r="D34">
+        <v>-0.05728286053951893</v>
+      </c>
+      <c r="E34">
+        <v>0.005252914329316012</v>
+      </c>
+      <c r="F34">
+        <v>0.02838494029464622</v>
+      </c>
+      <c r="G34">
+        <v>-0.01525928014707848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.0382312618293332</v>
+        <v>-0.03985087718318061</v>
       </c>
       <c r="C35">
-        <v>0.01325250660102483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.00591882068323277</v>
+      </c>
+      <c r="D35">
+        <v>-0.01124722001472632</v>
+      </c>
+      <c r="E35">
+        <v>0.0320129511820652</v>
+      </c>
+      <c r="F35">
+        <v>-0.005999293021775203</v>
+      </c>
+      <c r="G35">
+        <v>-0.009928811233592528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0189959005824497</v>
+        <v>-0.02245750371077977</v>
       </c>
       <c r="C36">
-        <v>0.01523775182833306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01005007964893512</v>
+      </c>
+      <c r="D36">
+        <v>-0.01833733265963492</v>
+      </c>
+      <c r="E36">
+        <v>0.03551202512239898</v>
+      </c>
+      <c r="F36">
+        <v>0.01459804453986071</v>
+      </c>
+      <c r="G36">
+        <v>-0.01611907597076164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03759459739536564</v>
+        <v>-0.04002691473580825</v>
       </c>
       <c r="C38">
-        <v>0.0129434318383994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003836056103435447</v>
+      </c>
+      <c r="D38">
+        <v>-0.01116156789071427</v>
+      </c>
+      <c r="E38">
+        <v>0.0604814857328797</v>
+      </c>
+      <c r="F38">
+        <v>-0.02604251378699528</v>
+      </c>
+      <c r="G38">
+        <v>0.028136193569389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08800211977218179</v>
+        <v>-0.09910331592252004</v>
       </c>
       <c r="C39">
-        <v>0.0794090609194814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05360364555528283</v>
+      </c>
+      <c r="D39">
+        <v>-0.08537043646397406</v>
+      </c>
+      <c r="E39">
+        <v>-0.0160494422688678</v>
+      </c>
+      <c r="F39">
+        <v>0.02275185701049233</v>
+      </c>
+      <c r="G39">
+        <v>0.005848838559058133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06812672096425451</v>
+        <v>-0.07481940266025872</v>
       </c>
       <c r="C40">
-        <v>0.05705698840540585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.04000688922657969</v>
+      </c>
+      <c r="D40">
+        <v>-0.006705598303438092</v>
+      </c>
+      <c r="E40">
+        <v>0.03587082035992577</v>
+      </c>
+      <c r="F40">
+        <v>-0.03926288254759029</v>
+      </c>
+      <c r="G40">
+        <v>0.04914820133428445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03879876073395339</v>
+        <v>-0.04206687170735465</v>
       </c>
       <c r="C41">
-        <v>0.01577576631934615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007829340586481895</v>
+      </c>
+      <c r="D41">
+        <v>-0.04174936777568521</v>
+      </c>
+      <c r="E41">
+        <v>0.008367221059051765</v>
+      </c>
+      <c r="F41">
+        <v>-0.01212171416313975</v>
+      </c>
+      <c r="G41">
+        <v>0.004143635578670509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04092038093456073</v>
+        <v>-0.04888742380780668</v>
       </c>
       <c r="C43">
-        <v>0.03642514509522265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0233878282432788</v>
+      </c>
+      <c r="D43">
+        <v>-0.02836806224391203</v>
+      </c>
+      <c r="E43">
+        <v>0.01910498037093392</v>
+      </c>
+      <c r="F43">
+        <v>0.008960710968797501</v>
+      </c>
+      <c r="G43">
+        <v>-0.01500361973325678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08879278520645734</v>
+        <v>-0.08962974904713712</v>
       </c>
       <c r="C44">
-        <v>0.09107146947912641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0606508738248205</v>
+      </c>
+      <c r="D44">
+        <v>-0.06589398037504492</v>
+      </c>
+      <c r="E44">
+        <v>0.0915776196189179</v>
+      </c>
+      <c r="F44">
+        <v>0.05276280625751211</v>
+      </c>
+      <c r="G44">
+        <v>0.002231005324977563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02840842558001923</v>
+        <v>-0.02878350574730346</v>
       </c>
       <c r="C46">
-        <v>0.01962716117993972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01245391881317815</v>
+      </c>
+      <c r="D46">
+        <v>-0.03371620165411923</v>
+      </c>
+      <c r="E46">
+        <v>0.02241264277156779</v>
+      </c>
+      <c r="F46">
+        <v>0.02093178051864357</v>
+      </c>
+      <c r="G46">
+        <v>0.007627348301166458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0304356928745304</v>
+        <v>-0.03260691990550388</v>
       </c>
       <c r="C47">
-        <v>0.02078343119136278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01317401146850304</v>
+      </c>
+      <c r="D47">
+        <v>-0.01839466551250571</v>
+      </c>
+      <c r="E47">
+        <v>0.05009651194545443</v>
+      </c>
+      <c r="F47">
+        <v>0.01402901812971703</v>
+      </c>
+      <c r="G47">
+        <v>-0.0264455365499863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02781557277662218</v>
+        <v>-0.03163316980643754</v>
       </c>
       <c r="C48">
-        <v>0.01827042421657083</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01155659849051862</v>
+      </c>
+      <c r="D48">
+        <v>-0.02788933892038305</v>
+      </c>
+      <c r="E48">
+        <v>0.04215738010128388</v>
+      </c>
+      <c r="F48">
+        <v>0.01400950252794715</v>
+      </c>
+      <c r="G48">
+        <v>-0.007707509850325589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1569181725106895</v>
+        <v>-0.1770070124320519</v>
       </c>
       <c r="C49">
-        <v>0.09352712375297507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05870275462379481</v>
+      </c>
+      <c r="D49">
+        <v>-0.009215259101168976</v>
+      </c>
+      <c r="E49">
+        <v>-0.1144206071790025</v>
+      </c>
+      <c r="F49">
+        <v>0.01011685698050219</v>
+      </c>
+      <c r="G49">
+        <v>-0.07709904676816508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03228270726613527</v>
+        <v>-0.03967722480532419</v>
       </c>
       <c r="C50">
-        <v>0.02598805203108287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02128478017470551</v>
+      </c>
+      <c r="D50">
+        <v>-0.04044858313465364</v>
+      </c>
+      <c r="E50">
+        <v>0.04464051397077708</v>
+      </c>
+      <c r="F50">
+        <v>0.02885671888896063</v>
+      </c>
+      <c r="G50">
+        <v>-0.01725231286670894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02532315118674529</v>
+        <v>-0.02623066962417728</v>
       </c>
       <c r="C51">
-        <v>0.0187086359306072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0114189477423468</v>
+      </c>
+      <c r="D51">
+        <v>-0.02564914388259789</v>
+      </c>
+      <c r="E51">
+        <v>0.01349486820136929</v>
+      </c>
+      <c r="F51">
+        <v>0.008783107609247586</v>
+      </c>
+      <c r="G51">
+        <v>0.008367452369714243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1427767580844428</v>
+        <v>-0.1600740924565907</v>
       </c>
       <c r="C53">
-        <v>0.1014223287638316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06940139878592712</v>
+      </c>
+      <c r="D53">
+        <v>-0.02441770159799304</v>
+      </c>
+      <c r="E53">
+        <v>-0.03458143772474211</v>
+      </c>
+      <c r="F53">
+        <v>0.03011962265913434</v>
+      </c>
+      <c r="G53">
+        <v>-0.02782972648724881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05214430604498046</v>
+        <v>-0.05592774942884041</v>
       </c>
       <c r="C54">
-        <v>0.02528692696454326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01239736314391543</v>
+      </c>
+      <c r="D54">
+        <v>-0.03680821473405629</v>
+      </c>
+      <c r="E54">
+        <v>0.04262650438941235</v>
+      </c>
+      <c r="F54">
+        <v>0.01229399754334137</v>
+      </c>
+      <c r="G54">
+        <v>-0.006798616808815679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09426738139773116</v>
+        <v>-0.1004478333240219</v>
       </c>
       <c r="C55">
-        <v>0.06280157914654762</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04256456634747714</v>
+      </c>
+      <c r="D55">
+        <v>-0.03332248330144878</v>
+      </c>
+      <c r="E55">
+        <v>0.007160897092863197</v>
+      </c>
+      <c r="F55">
+        <v>0.03125456912031849</v>
+      </c>
+      <c r="G55">
+        <v>-0.008366686380791881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1380911792182767</v>
+        <v>-0.1587826718738939</v>
       </c>
       <c r="C56">
-        <v>0.1092327006755577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07664963358485759</v>
+      </c>
+      <c r="D56">
+        <v>-0.01904581941335234</v>
+      </c>
+      <c r="E56">
+        <v>-0.03663529202239959</v>
+      </c>
+      <c r="F56">
+        <v>0.07035031766814764</v>
+      </c>
+      <c r="G56">
+        <v>-0.03924567338696743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1165487572840479</v>
+        <v>-0.1082911271767509</v>
       </c>
       <c r="C58">
-        <v>0.03219798806007873</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0004161690943405068</v>
+      </c>
+      <c r="D58">
+        <v>-0.05282812943051363</v>
+      </c>
+      <c r="E58">
+        <v>0.1811439794558203</v>
+      </c>
+      <c r="F58">
+        <v>0.05334815739581165</v>
+      </c>
+      <c r="G58">
+        <v>-0.03474317600878681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1093911585389022</v>
+        <v>-0.1474043991502132</v>
       </c>
       <c r="C59">
-        <v>0.08637102934834483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08460844385477635</v>
+      </c>
+      <c r="D59">
+        <v>0.3480942232667962</v>
+      </c>
+      <c r="E59">
+        <v>0.04434960807032416</v>
+      </c>
+      <c r="F59">
+        <v>-0.01984957950662011</v>
+      </c>
+      <c r="G59">
+        <v>-0.005804495326839904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1836743570721713</v>
+        <v>-0.2123994738977088</v>
       </c>
       <c r="C60">
-        <v>0.1151925434689438</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07867082078036843</v>
+      </c>
+      <c r="D60">
+        <v>-0.0176490146827213</v>
+      </c>
+      <c r="E60">
+        <v>-0.08039888206098542</v>
+      </c>
+      <c r="F60">
+        <v>0.03562879131201836</v>
+      </c>
+      <c r="G60">
+        <v>0.02724047137686993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07705720644878823</v>
+        <v>-0.08381349764934905</v>
       </c>
       <c r="C61">
-        <v>0.05798966154030733</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03805546472824994</v>
+      </c>
+      <c r="D61">
+        <v>-0.06147225760384362</v>
+      </c>
+      <c r="E61">
+        <v>-0.01107329075839847</v>
+      </c>
+      <c r="F61">
+        <v>0.007255474853404211</v>
+      </c>
+      <c r="G61">
+        <v>-0.03374171705000371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1185910814100447</v>
+        <v>-0.1386363094373394</v>
       </c>
       <c r="C62">
-        <v>0.08321471525682468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05938460000478935</v>
+      </c>
+      <c r="D62">
+        <v>-0.02965595715038761</v>
+      </c>
+      <c r="E62">
+        <v>-0.05339449327137252</v>
+      </c>
+      <c r="F62">
+        <v>0.03286442555346698</v>
+      </c>
+      <c r="G62">
+        <v>0.008364961634802012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04815803096987897</v>
+        <v>-0.05122935636495303</v>
       </c>
       <c r="C63">
-        <v>0.02872791322965898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01743203425526402</v>
+      </c>
+      <c r="D63">
+        <v>-0.0308641609689419</v>
+      </c>
+      <c r="E63">
+        <v>0.04620320267878353</v>
+      </c>
+      <c r="F63">
+        <v>0.01548221352362271</v>
+      </c>
+      <c r="G63">
+        <v>0.02366410970928183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1060467393520303</v>
+        <v>-0.1101507106344446</v>
       </c>
       <c r="C64">
-        <v>0.04597968590149806</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02385014624312418</v>
+      </c>
+      <c r="D64">
+        <v>-0.04895782289729374</v>
+      </c>
+      <c r="E64">
+        <v>0.03113334210185318</v>
+      </c>
+      <c r="F64">
+        <v>0.05103646489703125</v>
+      </c>
+      <c r="G64">
+        <v>0.0138064825048699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1078208411334024</v>
+        <v>-0.1210505875629833</v>
       </c>
       <c r="C65">
-        <v>0.06452604331403969</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04369072477370912</v>
+      </c>
+      <c r="D65">
+        <v>-0.01818950423042305</v>
+      </c>
+      <c r="E65">
+        <v>-0.01094310154779132</v>
+      </c>
+      <c r="F65">
+        <v>0.06443110391100582</v>
+      </c>
+      <c r="G65">
+        <v>0.03213444424555936</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1358188995927929</v>
+        <v>-0.1514736593457066</v>
       </c>
       <c r="C66">
-        <v>0.08954129382721243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05645253705210333</v>
+      </c>
+      <c r="D66">
+        <v>-0.1195915215266862</v>
+      </c>
+      <c r="E66">
+        <v>-0.05058264240365068</v>
+      </c>
+      <c r="F66">
+        <v>0.04449802429820553</v>
+      </c>
+      <c r="G66">
+        <v>-0.01896998439933123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0693182834357166</v>
+        <v>-0.07355471857292312</v>
       </c>
       <c r="C67">
-        <v>0.02475435178406125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008684182707460197</v>
+      </c>
+      <c r="D67">
+        <v>-0.02457864983860555</v>
+      </c>
+      <c r="E67">
+        <v>0.028168996662004</v>
+      </c>
+      <c r="F67">
+        <v>-0.01108615253339743</v>
+      </c>
+      <c r="G67">
+        <v>0.001761743559065411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05542230168909495</v>
+        <v>-0.07020010456449378</v>
       </c>
       <c r="C68">
-        <v>0.04879443757298679</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04843024578448074</v>
+      </c>
+      <c r="D68">
+        <v>0.2637338377293944</v>
+      </c>
+      <c r="E68">
+        <v>0.04810453384688268</v>
+      </c>
+      <c r="F68">
+        <v>0.01299962134319159</v>
+      </c>
+      <c r="G68">
+        <v>0.0005780060409328089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04768514715275205</v>
+        <v>-0.05087578474355869</v>
       </c>
       <c r="C69">
-        <v>0.02709917240135965</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01263204430226006</v>
+      </c>
+      <c r="D69">
+        <v>-0.0360474759317552</v>
+      </c>
+      <c r="E69">
+        <v>0.01544718551006617</v>
+      </c>
+      <c r="F69">
+        <v>0.005291468170409947</v>
+      </c>
+      <c r="G69">
+        <v>-0.01035919178178095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.003529054819758833</v>
+        <v>-0.01058358976387384</v>
       </c>
       <c r="C70">
-        <v>-0.001873987943254784</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001056909233339561</v>
+      </c>
+      <c r="D70">
+        <v>0.001559348283295989</v>
+      </c>
+      <c r="E70">
+        <v>-0.00612914931636265</v>
+      </c>
+      <c r="F70">
+        <v>-0.008616557942379904</v>
+      </c>
+      <c r="G70">
+        <v>0.0003726502952443669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05843659564696897</v>
+        <v>-0.07357683577004309</v>
       </c>
       <c r="C71">
-        <v>0.04911416361653123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04862338747662945</v>
+      </c>
+      <c r="D71">
+        <v>0.3030985060517093</v>
+      </c>
+      <c r="E71">
+        <v>0.04857290040170429</v>
+      </c>
+      <c r="F71">
+        <v>0.02582516342752935</v>
+      </c>
+      <c r="G71">
+        <v>-0.003736166986188164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1292610194158507</v>
+        <v>-0.1499061066245103</v>
       </c>
       <c r="C72">
-        <v>0.07621323398897638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05130113747465957</v>
+      </c>
+      <c r="D72">
+        <v>-0.01010869750535202</v>
+      </c>
+      <c r="E72">
+        <v>-0.1072110684057948</v>
+      </c>
+      <c r="F72">
+        <v>-0.1399374677611683</v>
+      </c>
+      <c r="G72">
+        <v>0.1214496300250393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.243589699950661</v>
+        <v>-0.2684158706902307</v>
       </c>
       <c r="C73">
-        <v>0.138386466555647</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08730387926866909</v>
+      </c>
+      <c r="D73">
+        <v>-0.06113752298339423</v>
+      </c>
+      <c r="E73">
+        <v>-0.1789177333100974</v>
+      </c>
+      <c r="F73">
+        <v>0.06899267374335445</v>
+      </c>
+      <c r="G73">
+        <v>-0.1619589914016073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07668209455981094</v>
+        <v>-0.08849959597605732</v>
       </c>
       <c r="C74">
-        <v>0.08060749131380948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06188391884616798</v>
+      </c>
+      <c r="D74">
+        <v>-0.03538145222519167</v>
+      </c>
+      <c r="E74">
+        <v>-0.004885528910043852</v>
+      </c>
+      <c r="F74">
+        <v>-0.001224266200214075</v>
+      </c>
+      <c r="G74">
+        <v>-0.03316944306991925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09768408715012354</v>
+        <v>-0.1087701667615792</v>
       </c>
       <c r="C75">
-        <v>0.07303222414527157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04474910510353731</v>
+      </c>
+      <c r="D75">
+        <v>-0.02662724954006173</v>
+      </c>
+      <c r="E75">
+        <v>0.01076040572238551</v>
+      </c>
+      <c r="F75">
+        <v>0.07869651398219596</v>
+      </c>
+      <c r="G75">
+        <v>-0.01425956119251491</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1191000364375901</v>
+        <v>-0.1335892194907289</v>
       </c>
       <c r="C76">
-        <v>0.09907413436747251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0688801196796007</v>
+      </c>
+      <c r="D76">
+        <v>-0.05743583135556974</v>
+      </c>
+      <c r="E76">
+        <v>0.005483721433980284</v>
+      </c>
+      <c r="F76">
+        <v>0.07608770668447691</v>
+      </c>
+      <c r="G76">
+        <v>-0.02016151120556958</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.09243280528579825</v>
+        <v>-0.1003590465963985</v>
       </c>
       <c r="C77">
-        <v>0.06584695554675972</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03321383973908058</v>
+      </c>
+      <c r="D77">
+        <v>-0.04734791355525576</v>
+      </c>
+      <c r="E77">
+        <v>-0.08667124903099464</v>
+      </c>
+      <c r="F77">
+        <v>0.3029519890275884</v>
+      </c>
+      <c r="G77">
+        <v>0.8799439742515008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08443383905483705</v>
+        <v>-0.09984909654123683</v>
       </c>
       <c r="C78">
-        <v>0.04667097630330386</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03080281126433997</v>
+      </c>
+      <c r="D78">
+        <v>-0.07482170658942265</v>
+      </c>
+      <c r="E78">
+        <v>0.03845348937786593</v>
+      </c>
+      <c r="F78">
+        <v>-0.01088130072113631</v>
+      </c>
+      <c r="G78">
+        <v>0.02118682200927452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1349003278819242</v>
+        <v>-0.1509780112800637</v>
       </c>
       <c r="C79">
-        <v>0.1008873248274569</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06501513073173813</v>
+      </c>
+      <c r="D79">
+        <v>-0.02831000710030561</v>
+      </c>
+      <c r="E79">
+        <v>-0.01881003644580587</v>
+      </c>
+      <c r="F79">
+        <v>0.04334942848618394</v>
+      </c>
+      <c r="G79">
+        <v>-0.02186857705594683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04486914742383755</v>
+        <v>-0.03984271179635174</v>
       </c>
       <c r="C80">
-        <v>0.01817095489136701</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00591361917801655</v>
+      </c>
+      <c r="D80">
+        <v>-0.0234020193404946</v>
+      </c>
+      <c r="E80">
+        <v>0.01442159616492459</v>
+      </c>
+      <c r="F80">
+        <v>-0.03224699045791628</v>
+      </c>
+      <c r="G80">
+        <v>-0.04114141310370592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1088704285465811</v>
+        <v>-0.1204968746348202</v>
       </c>
       <c r="C81">
-        <v>0.07959588720036295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05164134942522012</v>
+      </c>
+      <c r="D81">
+        <v>-0.03918506386004712</v>
+      </c>
+      <c r="E81">
+        <v>-0.003443368995828972</v>
+      </c>
+      <c r="F81">
+        <v>0.04493916701541284</v>
+      </c>
+      <c r="G81">
+        <v>-0.05460453274768144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1140979658937586</v>
+        <v>-0.1260346581210766</v>
       </c>
       <c r="C82">
-        <v>0.0933105671731139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06060428153418118</v>
+      </c>
+      <c r="D82">
+        <v>-0.03990733470119735</v>
+      </c>
+      <c r="E82">
+        <v>-0.02268760636937145</v>
+      </c>
+      <c r="F82">
+        <v>0.06182713856246686</v>
+      </c>
+      <c r="G82">
+        <v>-0.06070463319507055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07253231074101306</v>
+        <v>-0.07030265683919801</v>
       </c>
       <c r="C83">
-        <v>0.01539051859062841</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.00511940986968207</v>
+      </c>
+      <c r="D83">
+        <v>-0.04188960251814571</v>
+      </c>
+      <c r="E83">
+        <v>0.01419104320714102</v>
+      </c>
+      <c r="F83">
+        <v>-0.004704292704681185</v>
+      </c>
+      <c r="G83">
+        <v>-0.05746433641225602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02447094503777839</v>
+        <v>-0.03283739147754409</v>
       </c>
       <c r="C84">
-        <v>0.01900686069863493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01874464340130515</v>
+      </c>
+      <c r="D84">
+        <v>-0.01190733627761112</v>
+      </c>
+      <c r="E84">
+        <v>0.007944348900568287</v>
+      </c>
+      <c r="F84">
+        <v>-0.03737862804217727</v>
+      </c>
+      <c r="G84">
+        <v>-0.03588190510923481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1180894656988307</v>
+        <v>-0.1184190702960769</v>
       </c>
       <c r="C85">
-        <v>0.07925551345668255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04508973616173006</v>
+      </c>
+      <c r="D85">
+        <v>-0.03832811171474614</v>
+      </c>
+      <c r="E85">
+        <v>0.01056357074941018</v>
+      </c>
+      <c r="F85">
+        <v>0.09016499419665759</v>
+      </c>
+      <c r="G85">
+        <v>-0.005413533355631679</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04384215079595092</v>
+        <v>-0.04575183677749114</v>
       </c>
       <c r="C86">
-        <v>0.02383981010358616</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01102924832238111</v>
+      </c>
+      <c r="D86">
+        <v>-0.01457109034144829</v>
+      </c>
+      <c r="E86">
+        <v>0.04661745927390118</v>
+      </c>
+      <c r="F86">
+        <v>0.01092562448939155</v>
+      </c>
+      <c r="G86">
+        <v>0.008670528355605207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1112342328699682</v>
+        <v>-0.1185952885642487</v>
       </c>
       <c r="C87">
-        <v>0.07900341452420447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04678114921240431</v>
+      </c>
+      <c r="D87">
+        <v>-0.07565166378940022</v>
+      </c>
+      <c r="E87">
+        <v>0.007189235754878608</v>
+      </c>
+      <c r="F87">
+        <v>0.0282479158539647</v>
+      </c>
+      <c r="G87">
+        <v>0.09767790923143067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05315050826286981</v>
+        <v>-0.05704950023997688</v>
       </c>
       <c r="C88">
-        <v>0.04189511804995194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02598873546244531</v>
+      </c>
+      <c r="D88">
+        <v>-0.02603578257355532</v>
+      </c>
+      <c r="E88">
+        <v>0.0223519246494882</v>
+      </c>
+      <c r="F88">
+        <v>0.007387773733063819</v>
+      </c>
+      <c r="G88">
+        <v>0.00787226616630738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07746092921137071</v>
+        <v>-0.1065369595588287</v>
       </c>
       <c r="C89">
-        <v>0.08169742845813219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07936985451585832</v>
+      </c>
+      <c r="D89">
+        <v>0.322960826291701</v>
+      </c>
+      <c r="E89">
+        <v>0.09360967073970818</v>
+      </c>
+      <c r="F89">
+        <v>0.05478510276272035</v>
+      </c>
+      <c r="G89">
+        <v>-0.00881714463413868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07327110844791959</v>
+        <v>-0.092551600184429</v>
       </c>
       <c r="C90">
-        <v>0.07399516693666912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06979809978314372</v>
+      </c>
+      <c r="D90">
+        <v>0.3125782772339161</v>
+      </c>
+      <c r="E90">
+        <v>0.08092769152374522</v>
+      </c>
+      <c r="F90">
+        <v>-0.01776835592992176</v>
+      </c>
+      <c r="G90">
+        <v>-0.01584029939847636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.08126706606453189</v>
+        <v>-0.09027178992834804</v>
       </c>
       <c r="C91">
-        <v>0.06497635152472897</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04302829671567296</v>
+      </c>
+      <c r="D91">
+        <v>-0.03008166010069646</v>
+      </c>
+      <c r="E91">
+        <v>0.005354300711099056</v>
+      </c>
+      <c r="F91">
+        <v>0.01804669681699122</v>
+      </c>
+      <c r="G91">
+        <v>-0.0363798272417489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08641478534924121</v>
+        <v>-0.1057697559977251</v>
       </c>
       <c r="C92">
-        <v>0.06561728065708484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06279768723700166</v>
+      </c>
+      <c r="D92">
+        <v>0.3286439729392868</v>
+      </c>
+      <c r="E92">
+        <v>0.0308893314392579</v>
+      </c>
+      <c r="F92">
+        <v>0.03158785580612877</v>
+      </c>
+      <c r="G92">
+        <v>0.02211787981650554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0636866634515879</v>
+        <v>-0.08641449294465801</v>
       </c>
       <c r="C93">
-        <v>0.06832755477258054</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06749779399657123</v>
+      </c>
+      <c r="D93">
+        <v>0.2991473725599242</v>
+      </c>
+      <c r="E93">
+        <v>0.04464081494812432</v>
+      </c>
+      <c r="F93">
+        <v>0.03739877852386897</v>
+      </c>
+      <c r="G93">
+        <v>0.01509950826056312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1273449400026849</v>
+        <v>-0.129434279649831</v>
       </c>
       <c r="C94">
-        <v>0.07860604548759299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03941829956454956</v>
+      </c>
+      <c r="D94">
+        <v>-0.05605298484035482</v>
+      </c>
+      <c r="E94">
+        <v>-0.02507505666137289</v>
+      </c>
+      <c r="F94">
+        <v>0.0530182320102868</v>
+      </c>
+      <c r="G94">
+        <v>-0.04192311325793007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1147933625499634</v>
+        <v>-0.119688131361105</v>
       </c>
       <c r="C95">
-        <v>0.05401236902021959</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02731001703452796</v>
+      </c>
+      <c r="D95">
+        <v>-0.05884372970061019</v>
+      </c>
+      <c r="E95">
+        <v>-0.01368099517468305</v>
+      </c>
+      <c r="F95">
+        <v>0.02673520660777724</v>
+      </c>
+      <c r="G95">
+        <v>0.01141153801997164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1876023997499534</v>
+        <v>-0.2228626551749013</v>
       </c>
       <c r="C97">
-        <v>0.07261334755399207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04183498958537956</v>
+      </c>
+      <c r="D97">
+        <v>0.01467846407523871</v>
+      </c>
+      <c r="E97">
+        <v>-0.2254116815971398</v>
+      </c>
+      <c r="F97">
+        <v>-0.8605995114792974</v>
+      </c>
+      <c r="G97">
+        <v>0.2361085600728468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2372309401350853</v>
+        <v>-0.2578492985115175</v>
       </c>
       <c r="C98">
-        <v>0.1169880762163809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.0610583367378722</v>
+      </c>
+      <c r="D98">
+        <v>-0.03572202367414898</v>
+      </c>
+      <c r="E98">
+        <v>-0.143066893070799</v>
+      </c>
+      <c r="F98">
+        <v>-0.00883806588426882</v>
+      </c>
+      <c r="G98">
+        <v>-0.2491088026985436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5556124662477877</v>
+        <v>-0.3698530211745048</v>
       </c>
       <c r="C99">
-        <v>-0.8214901219170119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9184474107906444</v>
+      </c>
+      <c r="D99">
+        <v>0.07151591544544871</v>
+      </c>
+      <c r="E99">
+        <v>0.0490489066634815</v>
+      </c>
+      <c r="F99">
+        <v>0.0386110143384473</v>
+      </c>
+      <c r="G99">
+        <v>-0.001211118016915791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03710873825676501</v>
+        <v>-0.04241794968053128</v>
       </c>
       <c r="C101">
-        <v>0.03267922204200262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02550811019746731</v>
+      </c>
+      <c r="D101">
+        <v>-0.01050711520242062</v>
+      </c>
+      <c r="E101">
+        <v>0.04311428029800467</v>
+      </c>
+      <c r="F101">
+        <v>0.009971798095533481</v>
+      </c>
+      <c r="G101">
+        <v>-0.004776863617216213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
